--- a/artfynd/A 64943-2021.xlsx
+++ b/artfynd/A 64943-2021.xlsx
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105343625</v>
+        <v>105343678</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>579018.9757471241</v>
+        <v>579367.4720198719</v>
       </c>
       <c r="R9" t="n">
-        <v>7015651.889117917</v>
+        <v>7015752.363567609</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1615,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105343678</v>
+        <v>105343692</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>579367.4720198719</v>
+        <v>579369.0961422946</v>
       </c>
       <c r="R10" t="n">
-        <v>7015752.363567609</v>
+        <v>7015814.571333516</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105343692</v>
+        <v>105343677</v>
       </c>
       <c r="B11" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,25 +1743,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>579369.0961422946</v>
+        <v>579313.0396324483</v>
       </c>
       <c r="R11" t="n">
-        <v>7015814.571333516</v>
+        <v>7015709.576337469</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105343677</v>
+        <v>105343625</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>579313.0396324483</v>
+        <v>579018.9757471241</v>
       </c>
       <c r="R12" t="n">
-        <v>7015709.576337469</v>
+        <v>7015651.889117917</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">

--- a/artfynd/A 64943-2021.xlsx
+++ b/artfynd/A 64943-2021.xlsx
@@ -1499,7 +1499,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105343678</v>
+        <v>105343625</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1539,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>579367.4720198719</v>
+        <v>579018.9757471241</v>
       </c>
       <c r="R9" t="n">
-        <v>7015752.363567609</v>
+        <v>7015651.889117917</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1615,10 +1615,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105343692</v>
+        <v>105343678</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1627,25 +1627,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>579369.0961422946</v>
+        <v>579367.4720198719</v>
       </c>
       <c r="R10" t="n">
-        <v>7015814.571333516</v>
+        <v>7015752.363567609</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105343677</v>
+        <v>105343692</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1743,25 +1743,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1771,10 +1771,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>579313.0396324483</v>
+        <v>579369.0961422946</v>
       </c>
       <c r="R11" t="n">
-        <v>7015709.576337469</v>
+        <v>7015814.571333516</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105343625</v>
+        <v>105343677</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>579018.9757471241</v>
+        <v>579313.0396324483</v>
       </c>
       <c r="R12" t="n">
-        <v>7015651.889117917</v>
+        <v>7015709.576337469</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
